--- a/Output_testing/R1_201907/Country/HKD/MN/MEXICO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MEXICO_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>12207.384819</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>43.79433485601713</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>11910.841228</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>41.11938827966208</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>13257.556801</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>38.61927270718731</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>8407.125916000001</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>38.11446663564664</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>9.768077078361671</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1645.227565</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>5.902299957302565</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>2297.238116</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>7.930676285112797</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>4775.420033</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>13.91080206662827</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>2571.931774</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.66008559509274</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-4.487166380335839</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2348.684084</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>8.42596991663607</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2488.786189</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>8.59195112180463</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>2784.68819</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>8.111798744545604</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2042.730853</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.260905298694293</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>26.14385236046639</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1847.275908</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.627154045352053</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2173.863941</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>7.504755856118899</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1721.549677</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.014875474643892</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1948.935191</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>8.835674171483067</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>128.7854789683434</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1796.195318</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>6.443900998424171</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1755.473926</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>6.060362370403077</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1861.042207</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.421217317077421</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1180.851173</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.353495723112315</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>15.74097936521275</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1182.272756</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.241436616860225</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1465.43278</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.059063278999207</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1522.857006</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.436083577958248</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>986.205297</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.47105101838283</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>18.40581023867143</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>604.710767</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.169416809062825</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>652.4268029999999</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.252350654591028</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>952.469753</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.774545090667067</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>670.974765</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.041924856303454</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>34.57799373056369</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>681.650215</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.445439233137201</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1073.71786</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.706759308012484</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1023.05551</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.980161452696958</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>517.856355</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.347748679146235</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-19.34088070590537</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>82.180734</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.2948256843601411</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>89.633662</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3094392142547996</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1246.376395</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.630695354869256</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>472.115726</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.140379395596422</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-63.28301116564467</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>318.720508</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.143418746913502</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>414.207366</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.429953870160858</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>392.148649</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.142329302812698</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>221.429584</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.003871070308484</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0.6631075904844463</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>5160.044223</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>18.51180313593412</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>4644.862618</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>16.03529976088014</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>4791.697696</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>13.95821891091328</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>3037.415354</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>13.77039755623351</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>12.66217145490127</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,465 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>15.246918</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>35.36287451548577</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>8.201314999999999</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>35.70432400153086</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>7.796411</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>35.07688252959198</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>7.633729</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>39.50786073383203</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>81.33264509680167</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>7.27379</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>16.87043394750305</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>2.922075</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>15.1230063516549</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.629908</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>3.780320198205721</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.6832058857064072</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>3.631444</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>16.33825289620975</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>2.217502</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>11.47653528085605</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>170.6244309874762</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.6120057639452925</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>2.11937</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>9.226651233262526</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.911059</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>4.098951366279629</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>1.264117</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.542354121723413</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>322.7943316019545</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.649917</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.826727987385171</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>2.091718</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>9.106268591297143</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>2.216411</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>9.971868887401584</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>1.15752</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>5.990668381943511</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-12.11134142730234</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>2.640162</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>6.123448522944371</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.27978</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>5.571506492639188</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>1.989416</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>8.950594232973447</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>1.006868</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>5.210978896598503</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>312.9690089085033</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.529683</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.228518016689409</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>0.570993</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.485811004040951</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.8562789258797417</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>0.790052</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>4.08886199503355</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.6866840585127331</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.823093</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>3.583325253985738</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.469498</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>6.611427838202776</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>0.749443</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>3.878692795086816</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-19.068466049906</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>1.180133</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.737136461977678</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.60848</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>7.002497900639392</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>1.685336</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>7.582505962665695</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>2.339803367665265</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-62.62191749336724</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.4447994898923724</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.061950608898381</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.1032095005290049</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.764848876550424</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>12.21338</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>28.32705103745844</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>5.874476</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>25.57445902799941</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>2.313799</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>10.41002786026639</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>0.787642</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>4.076389199055525</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-20.57842764562282</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1758,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>12207.384819</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>43.86218019533407</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>11910.841228</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>41.15202135923066</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>13257.556801</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>38.64429342140241</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>8407.125916000001</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>38.14788352084746</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>9.768077078361671</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1645.084783</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>5.910930658648557</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>2297.200686</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>7.936840890337768</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4775.420033</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>13.91981461861626</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>2571.931774</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.67030858326906</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-4.487166380335839</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2347.054176</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.433166867623699</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>2488.629256</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.598227643012143</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>2781.056746</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>8.106468976688683</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2040.513351</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.258962743562426</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>26.07070793334649</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1846.768114</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.635596157269403</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2173.52117</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>7.509527488479423</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1721.410804</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.017719720690204</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1948.935191</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>8.843420854974216</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>128.8227823443862</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1796.195318</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>6.453883765629113</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1755.473926</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>6.065171982017499</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1861.042207</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.424729623749195</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1180.851173</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.358189404220659</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>15.74097936521275</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1182.272756</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.24800736870309</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1465.43278</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.063078241804665</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1522.857006</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.438957634657346</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>986.205297</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.474971015480956</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>18.40581023867143</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>604.247705</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.171113806298291</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>652.300209</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.253700777262902</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>952.469753</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.776342667237627</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>670.974765</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.044591866042416</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>34.57799373056369</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>680.431186</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.444847584750894</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1072.9675</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.707108560389612</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1023.043448</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.982057084935377</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>517.851387</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.349784526812992</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-19.34013912267751</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>82.180734</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2952824226268719</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>89.633662</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3096847907315637</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1246.376395</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.633047615398993</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>472.115726</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.142255974724042</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-63.28301116564467</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>318.720508</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.145190109194052</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>414.207366</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.431088707043814</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>392.148649</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.143069396890645</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>221.429584</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.004751214969398</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>0.6631075904844463</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>5120.891191</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>18.39980106392196</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>4623.306617</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.97354955968996</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>4773.253439</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>13.91349923973327</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>3020.315773</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>13.70488029509636</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>12.40767213894587</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2216,435 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>429.489741</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>7.907241204167895</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1042.182742</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>15.90210573743763</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1357.099665</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>17.56315253787898</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1167.190418</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>23.81458406446198</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>73.93965903815382</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1152.814755</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>21.22421902391545</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1994.013313</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>30.42557630951859</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1926.089783</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>24.92684180308837</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>826.461234</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>16.86257034806465</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-20.37125485097416</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1321.536646</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>24.3305206679408</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>666.760633</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>10.17374176354078</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1157.659794</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>14.98206511530718</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>638.680165</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>13.0312091713016</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>30.6294443641163</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>6.197104</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.1140935193963427</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>10.01311</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.1527846581637159</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>18.479547</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.2391564239255072</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>572.929143</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>11.68966865092415</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>707.546451</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>13.02648216505353</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>813.7319649999999</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>12.41629824394357</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>876.276755</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>11.34049525645016</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>432.855475</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>8.831697843110737</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>29.04018909358128</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>75.411272</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.388380350666194</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>90.136917</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.375350720383201</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>261.680546</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.38658645648804</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>146.650586</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.992161908237676</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>1.683114026648669</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>292.188312</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>5.379414778670266</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>325.676406</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>4.969321056364862</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>367.001213</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.749613054768246</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>126.912489</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.589438785232219</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-24.62473582946099</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>93.616331</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.723549689784605</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>177.168562</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.703319766039433</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>285.31124</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.69240738770015</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>123.731836</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.524542837595693</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-21.50798003895019</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>327.809232</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>6.035223706023359</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>228.203001</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.482026812820305</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>174.167539</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.254020934124971</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>109.991186</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.244187670624686</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>1.131910309881135</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>170.342433</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.136137086533596</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>197.427185</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>3.012435194704712</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>163.150233</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.111438461499802</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>87.348463</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.782200472978049</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>23.30706096182498</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>854.648074</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>15.73473780784797</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1008.426653</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>15.3870397370832</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1140.054467</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>14.7542225687686</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>668.407114</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>13.63773824746856</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-0.9088699160121894</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
